--- a/ChiPhiTeam.xlsx
+++ b/ChiPhiTeam.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\ICTU Team\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\ICTU Team\Team_Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACE993A-353B-495E-83A6-6EF3B8CD2100}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590AB81E-6B4C-4D7C-ACD0-F6ED888CD171}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>Tiền ăn</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>27/02</t>
+  </si>
+  <si>
+    <t>Khang, Tuấn, Lực, Hùng</t>
+  </si>
+  <si>
+    <t>28/02</t>
   </si>
 </sst>
 </file>
@@ -888,7 +894,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,10 +941,16 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="12">
+        <v>120000</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -980,7 +992,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" s="13">
         <f>SUM(C2:C10)</f>
-        <v>620000</v>
+        <v>740000</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14" t="s">

--- a/ChiPhiTeam.xlsx
+++ b/ChiPhiTeam.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\ICTU Team\Team_Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590AB81E-6B4C-4D7C-ACD0-F6ED888CD171}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B79A10-E1C9-4CEF-A3F2-4C1B34566D64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T11" sheetId="1" r:id="rId1"/>
     <sheet name="T12" sheetId="2" r:id="rId2"/>
     <sheet name="T1" sheetId="3" r:id="rId3"/>
     <sheet name="T2" sheetId="4" r:id="rId4"/>
+    <sheet name="T3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>Tiền ăn</t>
   </si>
@@ -118,6 +119,12 @@
   </si>
   <si>
     <t>28/02</t>
+  </si>
+  <si>
+    <t>Đã thanh toán cho anh Lực</t>
+  </si>
+  <si>
+    <t>Đã thanh toán</t>
   </si>
 </sst>
 </file>
@@ -133,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -210,6 +223,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,7 +767,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,6 +859,9 @@
         <v>200000</v>
       </c>
       <c r="D7" s="6"/>
+      <c r="E7" s="15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -893,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BED79C-58C0-4514-806D-4C41910E1B85}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,6 +970,9 @@
         <v>120000</v>
       </c>
       <c r="D4" s="6"/>
+      <c r="E4" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -1002,4 +1023,105 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5B07E4-EB11-44DC-8F25-8C4F54404F50}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9">
+        <v>500000</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="16">
+        <f>SUM(C2:C9)</f>
+        <v>500000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ChiPhiTeam.xlsx
+++ b/ChiPhiTeam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\ICTU Team\Team_Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B79A10-E1C9-4CEF-A3F2-4C1B34566D64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2760A18-B5F9-4C8F-AA12-EDF261FAC2DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>Tiền ăn</t>
   </si>
@@ -125,6 +125,33 @@
   </si>
   <si>
     <t>Đã thanh toán</t>
+  </si>
+  <si>
+    <t>Ăn trưa ngày 13/3</t>
+  </si>
+  <si>
+    <t>A Khơ</t>
+  </si>
+  <si>
+    <t>Ăn trưa ngày 14/3</t>
+  </si>
+  <si>
+    <t>A khơ</t>
+  </si>
+  <si>
+    <t>Đã thanh toán vào tiền phòng</t>
+  </si>
+  <si>
+    <t>Ăn trưa ngày 21/03</t>
+  </si>
+  <si>
+    <t>Tuấn</t>
+  </si>
+  <si>
+    <t>Ăn trưa + tối ngày 28/03</t>
+  </si>
+  <si>
+    <t>Taxi đi gặp Lâm Pega</t>
   </si>
 </sst>
 </file>
@@ -767,7 +794,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,7 +939,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,6 +973,9 @@
         <v>500000</v>
       </c>
       <c r="D2" s="6"/>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1030,7 +1060,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E11" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -1065,34 +1095,60 @@
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="C4" s="12">
+        <v>180000</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="C5" s="12">
+        <v>120000</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
+      <c r="C6" s="12">
+        <v>120000</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="12">
+        <v>200000</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
@@ -1115,7 +1171,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="16">
         <f>SUM(C2:C9)</f>
-        <v>500000</v>
+        <v>1120000</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
